--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,46 +49,46 @@
     <t>however</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>junk</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>bit</t>
   </si>
   <si>
     <t>thought</t>
@@ -100,33 +100,33 @@
     <t>size</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>price</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>box</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
@@ -139,42 +139,45 @@
     <t>use</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>toy</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -184,40 +187,40 @@
     <t>great</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>best</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>best</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>easy</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>play</t>
@@ -581,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -671,16 +674,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -692,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -700,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -718,19 +721,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4">
-        <v>0.8769230769230769</v>
+        <v>0.875</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.765625</v>
+        <v>0.734375</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,31 +771,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <v>0.8387096774193549</v>
+      </c>
+      <c r="L5">
+        <v>78</v>
+      </c>
+      <c r="M5">
+        <v>78</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>15</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5">
-        <v>0.8494623655913979</v>
-      </c>
-      <c r="L5">
-        <v>79</v>
-      </c>
-      <c r="M5">
-        <v>79</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.704225352112676</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -818,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6">
-        <v>0.75</v>
+        <v>0.765625</v>
       </c>
       <c r="L6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -842,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6881720430107527</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C7">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -868,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K7">
-        <v>0.6376811594202898</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -892,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6824324324324325</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C8">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>0.6226415094339622</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -950,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6067961165048543</v>
+        <v>0.668918918918919</v>
       </c>
       <c r="C9">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D9">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9">
-        <v>0.5652797704447633</v>
+        <v>0.5681492109038737</v>
       </c>
       <c r="L9">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M9">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6050420168067226</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C10">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1018,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>0.5414937759336099</v>
+        <v>0.516597510373444</v>
       </c>
       <c r="L10">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="M10">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.6213592233009708</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K11">
-        <v>0.4614754098360656</v>
+        <v>0.4713114754098361</v>
       </c>
       <c r="L11">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="M11">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>657</v>
+        <v>645</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1100,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5370370370370371</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1118,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K12">
-        <v>0.3944954128440367</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L12">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="M12">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1142,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>198</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.527536231884058</v>
+        <v>0.5159420289855072</v>
       </c>
       <c r="C13">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D13">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1168,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K13">
-        <v>0.3650793650793651</v>
+        <v>0.3700305810397553</v>
       </c>
       <c r="L13">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="M13">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>120</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1200,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4566929133858268</v>
+        <v>0.4724409448818898</v>
       </c>
       <c r="C14">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1218,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K14">
-        <v>0.3614457831325301</v>
+        <v>0.35</v>
       </c>
       <c r="L14">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="M14">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1242,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>106</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4421052631578947</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C15">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1268,31 +1271,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15">
-        <v>0.319327731092437</v>
+        <v>0.3132530120481928</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N15">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1300,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4407582938388626</v>
+        <v>0.4140625</v>
       </c>
       <c r="C16">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D16">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1318,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K16">
-        <v>0.25</v>
+        <v>0.2447552447552448</v>
       </c>
       <c r="L16">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1342,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1350,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4337349397590362</v>
+        <v>0.4075829383886256</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1368,28 +1371,28 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K17">
-        <v>0.2324324324324324</v>
+        <v>0.2365591397849462</v>
       </c>
       <c r="L17">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M17">
         <v>44</v>
       </c>
       <c r="N17">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>142</v>
@@ -1400,13 +1403,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4140625</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="C18">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1418,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K18">
-        <v>0.2167832167832168</v>
+        <v>0.2265625</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1442,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1450,13 +1453,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3707865168539326</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1468,31 +1471,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K19">
-        <v>0.2096774193548387</v>
+        <v>0.2088353413654618</v>
       </c>
       <c r="L19">
         <v>52</v>
       </c>
       <c r="M19">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N19">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1500,13 +1503,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2871287128712871</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="C20">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1518,19 +1521,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K20">
-        <v>0.187719298245614</v>
+        <v>0.1956140350877193</v>
       </c>
       <c r="L20">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="M20">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1542,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>926</v>
+        <v>917</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1550,13 +1553,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.264957264957265</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C21">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1568,31 +1571,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K21">
-        <v>0.1283422459893048</v>
+        <v>0.1143599740090968</v>
       </c>
       <c r="L21">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="M21">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>326</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1600,13 +1603,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2525773195876289</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C22">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D22">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1618,31 +1621,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K22">
-        <v>0.115009746588694</v>
+        <v>0.1030640668523677</v>
       </c>
       <c r="L22">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="N22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1362</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1650,13 +1653,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2310126582278481</v>
+        <v>0.2210144927536232</v>
       </c>
       <c r="C23">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D23">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1668,31 +1671,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K23">
-        <v>0.1089385474860335</v>
+        <v>0.08288770053475936</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N23">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>319</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1700,13 +1703,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2113095238095238</v>
+        <v>0.2065378900445765</v>
       </c>
       <c r="C24">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D24">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E24">
         <v>0.01</v>
@@ -1718,31 +1721,31 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K24">
-        <v>0.05725699067909454</v>
+        <v>0.05733333333333333</v>
       </c>
       <c r="L24">
         <v>43</v>
       </c>
       <c r="M24">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N24">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O24">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1750,25 +1753,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2101910828025478</v>
+        <v>0.2060301507537688</v>
       </c>
       <c r="C25">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D25">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>124</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1776,25 +1779,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2010050251256282</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="C26">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D26">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E26">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>159</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1802,13 +1805,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1930379746835443</v>
+        <v>0.1839080459770115</v>
       </c>
       <c r="C27">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D27">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1820,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>255</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1828,25 +1831,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1884057971014493</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="C28">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D28">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>224</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1854,25 +1857,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1729106628242075</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="C29">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D29">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E29">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>287</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1880,13 +1883,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1675392670157068</v>
+        <v>0.1584699453551913</v>
       </c>
       <c r="C30">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1898,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1906,13 +1909,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1635514018691589</v>
+        <v>0.1570680628272251</v>
       </c>
       <c r="C31">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1924,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1932,25 +1935,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1438053097345133</v>
+        <v>0.1497797356828194</v>
       </c>
       <c r="C32">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D32">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E32">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1984,13 +1987,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1165413533834586</v>
+        <v>0.1203007518796992</v>
       </c>
       <c r="C34">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E34">
         <v>0.03</v>
@@ -2002,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2010,22 +2013,22 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1153846153846154</v>
+        <v>0.1178082191780822</v>
       </c>
       <c r="C35">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35">
         <v>43</v>
       </c>
       <c r="E35">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>322</v>
@@ -2036,25 +2039,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.09295774647887324</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D36">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>322</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2062,25 +2065,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.08928571428571429</v>
+        <v>0.09405940594059406</v>
       </c>
       <c r="C37">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D37">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E37">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F37">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>408</v>
+        <v>549</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2088,25 +2091,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0859504132231405</v>
+        <v>0.09375</v>
       </c>
       <c r="C38">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D38">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E38">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="F38">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>553</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2114,25 +2117,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.05874840357598978</v>
+        <v>0.06775700934579439</v>
       </c>
       <c r="C39">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D39">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E39">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="F39">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>737</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2140,25 +2143,51 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.05521472392638037</v>
+        <v>0.04900459418070444</v>
       </c>
       <c r="C40">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D40">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E40">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F40">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>616</v>
+        <v>621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.0489060489060489</v>
+      </c>
+      <c r="C41">
+        <v>38</v>
+      </c>
+      <c r="D41">
+        <v>55</v>
+      </c>
+      <c r="E41">
+        <v>0.31</v>
+      </c>
+      <c r="F41">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>739</v>
       </c>
     </row>
   </sheetData>
